--- a/OUTPUT/excel/exel.xlsx
+++ b/OUTPUT/excel/exel.xlsx
@@ -19,41 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Datatype</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size(in bytes)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Primitive</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Non-Primitive</t>
-  </si>
-  <si>
-    <t>No fixed size</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,79 +335,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OUTPUT/excel/exel.xlsx
+++ b/OUTPUT/excel/exel.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data-source" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
@@ -345,4 +342,25 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>'data-source'!C2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>